--- a/biology/Botanique/Agave_sisalana/Agave_sisalana.xlsx
+++ b/biology/Botanique/Agave_sisalana/Agave_sisalana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sisal
 Agave sisalana, appelé communément sisal, est une espèce de plantes de la famille des Agavaceae originaire de l'est du Mexique. 
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient de la ville portuaire de Sisal (en), située dans l'État mexicain du Yucatán, car à l'origine c'était à partir du port de Sisal qu'étaient expédiées les fibres dans le monde entier.
 </t>
@@ -544,7 +558,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle était jusque dans les années 1970 bien connue des agriculteurs européens sous forme de ficelle servant à lier les bottes de foin. Elle a, depuis l'apparition des presses à bottes haute densité, été remplacée par de la ficelle en polypropylène.
 Le sisal est utilisé dans la filière bois pour tous les produits liés destinés au bois énergie et à la trituration (papeterie, panneau de particules). Leur stockage est de courte durée (le sisal est peu durable) et cette fibre végétale peut être mélangée au bois (ne pollue pas la matière comme une fibre synthétique).
@@ -582,7 +598,9 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sisal est surtout cultivé en Afrique. Le Mozambique est le principal pays exportateur du sisal utilisé en France.
 </t>
